--- a/reports/abnormal_table_20251003.xlsx
+++ b/reports/abnormal_table_20251003.xlsx
@@ -506,10 +506,10 @@
         <v>372</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.587973273942094</v>
+        <v>-5.707589285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>171.2013537205511</v>
+        <v>171.3373159178782</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>1055</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.587973273942094</v>
+        <v>-5.707589285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>171.2013537205511</v>
+        <v>171.3373159178782</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>202</v>
       </c>
       <c r="G6" t="n">
-        <v>5.761904761904762</v>
+        <v>5.380952380952381</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54669868015321</v>
+        <v>77.59605414612021</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -681,10 +681,10 @@
         <v>385</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.653483992467043</v>
+        <v>-4.060606060606061</v>
       </c>
       <c r="H7" t="n">
-        <v>171.4141087578123</v>
+        <v>171.8040566782202</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>540</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.653483992467043</v>
+        <v>-4.060606060606061</v>
       </c>
       <c r="H8" t="n">
-        <v>171.4141087578123</v>
+        <v>171.8040566782202</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>463</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.653483992467043</v>
+        <v>-4.060606060606061</v>
       </c>
       <c r="H9" t="n">
-        <v>171.4141087578123</v>
+        <v>171.8040566782202</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>317</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.516528925619835</v>
+        <v>-2.537190082644628</v>
       </c>
       <c r="H10" t="n">
-        <v>89.90405361641797</v>
+        <v>89.90082332394985</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1323</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.516528925619835</v>
+        <v>-2.537190082644628</v>
       </c>
       <c r="H11" t="n">
-        <v>89.90405361641797</v>
+        <v>89.90082332394985</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>300</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4746543778801843</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="H12" t="n">
-        <v>60.37330285165751</v>
+        <v>60.48873016665874</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -926,10 +926,10 @@
         <v>232</v>
       </c>
       <c r="G14" t="n">
-        <v>7.772277227722772</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>87.30829069316599</v>
+        <v>87.52603018300304</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>251</v>
       </c>
       <c r="G15" t="n">
-        <v>7.772277227722772</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>87.30829069316599</v>
+        <v>87.52603018300304</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -996,10 +996,10 @@
         <v>204</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7642857142857142</v>
+        <v>-0.5980861244019139</v>
       </c>
       <c r="H16" t="n">
-        <v>93.12213429507489</v>
+        <v>93.3799705140818</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>824</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.365217391304348</v>
+        <v>-9.626086956521739</v>
       </c>
       <c r="H17" t="n">
-        <v>217.2992249538007</v>
+        <v>217.2453322886834</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>824</v>
       </c>
       <c r="G18" t="n">
-        <v>-9.365217391304348</v>
+        <v>-9.626086956521739</v>
       </c>
       <c r="H18" t="n">
-        <v>217.2992249538007</v>
+        <v>217.2453322886834</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>1229</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.129346314325452</v>
+        <v>-6.301675977653631</v>
       </c>
       <c r="H19" t="n">
-        <v>454.106390800052</v>
+        <v>455.0508937001741</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1171,10 +1171,10 @@
         <v>200</v>
       </c>
       <c r="G21" t="n">
-        <v>1.846153846153846</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="H21" t="n">
-        <v>30.97092653761412</v>
+        <v>31.06271092463624</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1206,10 +1206,10 @@
         <v>288</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.367741935483871</v>
+        <v>-2.558441558441559</v>
       </c>
       <c r="H22" t="n">
-        <v>53.37505367920154</v>
+        <v>53.4326265671931</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1276,10 +1276,10 @@
         <v>87</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62756052141527</v>
+        <v>1.783582089552239</v>
       </c>
       <c r="H24" t="n">
-        <v>129.4694506128206</v>
+        <v>129.5419889746891</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -1346,10 +1346,10 @@
         <v>248</v>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>1.815625</v>
       </c>
       <c r="H26" t="n">
-        <v>98.16349358776017</v>
+        <v>98.12943473795515</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1381,10 +1381,10 @@
         <v>207</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1009771986970684</v>
+        <v>-0.1889250814332248</v>
       </c>
       <c r="H27" t="n">
-        <v>28.79462264311879</v>
+        <v>28.58041300723807</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1416,10 +1416,10 @@
         <v>350</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1122448979591837</v>
+        <v>-0.00510204081632653</v>
       </c>
       <c r="H28" t="n">
-        <v>42.72041069932738</v>
+        <v>42.74701938314976</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1486,10 +1486,10 @@
         <v>568</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.769716088328076</v>
+        <v>-1.524564183835182</v>
       </c>
       <c r="H30" t="n">
-        <v>193.2684223107296</v>
+        <v>193.656353176966</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1521,10 +1521,10 @@
         <v>3102</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.769716088328076</v>
+        <v>-1.524564183835182</v>
       </c>
       <c r="H31" t="n">
-        <v>193.2684223107296</v>
+        <v>193.656353176966</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1556,10 +1556,10 @@
         <v>472</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.769716088328076</v>
+        <v>-1.524564183835182</v>
       </c>
       <c r="H32" t="n">
-        <v>193.2684223107296</v>
+        <v>193.656353176966</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1591,10 +1591,10 @@
         <v>670</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.395104895104895</v>
+        <v>-1.198952879581152</v>
       </c>
       <c r="H33" t="n">
-        <v>202.7515224872976</v>
+        <v>202.5699366383643</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1626,10 +1626,10 @@
         <v>1872</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.395104895104895</v>
+        <v>-1.198952879581152</v>
       </c>
       <c r="H34" t="n">
-        <v>202.7515224872976</v>
+        <v>202.5699366383643</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -1696,10 +1696,10 @@
         <v>509</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.4875207986688852</v>
+        <v>-0.8704318936877077</v>
       </c>
       <c r="H36" t="n">
-        <v>272.3640766706885</v>
+        <v>272.0822826681473</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -1731,10 +1731,10 @@
         <v>427</v>
       </c>
       <c r="G37" t="n">
-        <v>4.581005586592179</v>
+        <v>4.64245810055866</v>
       </c>
       <c r="H37" t="n">
-        <v>47.64708601504071</v>
+        <v>47.64823807525946</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>203</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.573264781491003</v>
+        <v>-6.93573264781491</v>
       </c>
       <c r="H38" t="n">
-        <v>165.7514842802858</v>
+        <v>165.6637492568163</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>299</v>
       </c>
       <c r="G39" t="n">
-        <v>10.17543859649123</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="H39" t="n">
-        <v>56.15448169591044</v>
+        <v>56.11223871254232</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -1836,10 +1836,10 @@
         <v>299</v>
       </c>
       <c r="G40" t="n">
-        <v>10.17543859649123</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>56.15448169591044</v>
+        <v>56.11223871254232</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>1218</v>
       </c>
       <c r="G41" t="n">
-        <v>4.58125</v>
+        <v>4.498432601880878</v>
       </c>
       <c r="H41" t="n">
-        <v>256.9090436333976</v>
+        <v>257.3109597918094</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1906,10 +1906,10 @@
         <v>1265</v>
       </c>
       <c r="G42" t="n">
-        <v>4.58125</v>
+        <v>4.498432601880878</v>
       </c>
       <c r="H42" t="n">
-        <v>256.9090436333976</v>
+        <v>257.3109597918094</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -1941,10 +1941,10 @@
         <v>1265</v>
       </c>
       <c r="G43" t="n">
-        <v>4.58125</v>
+        <v>4.498432601880878</v>
       </c>
       <c r="H43" t="n">
-        <v>256.9090436333976</v>
+        <v>257.3109597918094</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -1976,10 +1976,10 @@
         <v>800</v>
       </c>
       <c r="G44" t="n">
-        <v>4.58125</v>
+        <v>4.498432601880878</v>
       </c>
       <c r="H44" t="n">
-        <v>256.9090436333976</v>
+        <v>257.3109597918094</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2011,10 +2011,10 @@
         <v>800</v>
       </c>
       <c r="G45" t="n">
-        <v>4.58125</v>
+        <v>4.498432601880878</v>
       </c>
       <c r="H45" t="n">
-        <v>256.9090436333976</v>
+        <v>257.3109597918094</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2046,10 +2046,10 @@
         <v>565</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7837338262476895</v>
+        <v>-0.5537037037037037</v>
       </c>
       <c r="H46" t="n">
-        <v>427.4953794354102</v>
+        <v>427.8995197074296</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -2081,10 +2081,10 @@
         <v>936</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.7837338262476895</v>
+        <v>-0.5537037037037037</v>
       </c>
       <c r="H47" t="n">
-        <v>427.4953794354102</v>
+        <v>427.8995197074296</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         <v>207</v>
       </c>
       <c r="G48" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H48" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2151,10 +2151,10 @@
         <v>595</v>
       </c>
       <c r="G49" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H49" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2186,10 +2186,10 @@
         <v>595</v>
       </c>
       <c r="G50" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H50" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -2221,10 +2221,10 @@
         <v>599</v>
       </c>
       <c r="G51" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H51" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2256,10 +2256,10 @@
         <v>599</v>
       </c>
       <c r="G52" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H52" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -2291,10 +2291,10 @@
         <v>355</v>
       </c>
       <c r="G53" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H53" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2326,10 +2326,10 @@
         <v>101</v>
       </c>
       <c r="G54" t="n">
-        <v>6.611620795107034</v>
+        <v>6.776073619631902</v>
       </c>
       <c r="H54" t="n">
-        <v>92.67384055621405</v>
+        <v>92.79291507063098</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>304</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.125581395348837</v>
+        <v>-1.097222222222222</v>
       </c>
       <c r="H55" t="n">
-        <v>66.66731496460844</v>
+        <v>66.51339988559512</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2383,23 +2383,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>台灣摩根士丹利</t>
+          <t>元大-館前</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>870</v>
+        <v>1989</v>
       </c>
       <c r="F56" t="n">
-        <v>146</v>
+        <v>1989</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.238955823293173</v>
+        <v>0.3702213279678068</v>
       </c>
       <c r="H56" t="n">
-        <v>157.9016233751289</v>
+        <v>181.2297924178857</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2418,23 +2418,23 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美林</t>
+          <t>台灣摩根士丹利</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="E57" t="n">
-        <v>361</v>
+        <v>870</v>
       </c>
       <c r="F57" t="n">
-        <v>361</v>
+        <v>146</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.238955823293173</v>
+        <v>0.3702213279678068</v>
       </c>
       <c r="H57" t="n">
-        <v>157.9016233751289</v>
+        <v>181.2297924178857</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2466,10 +2466,10 @@
         <v>1276</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.97275204359673</v>
+        <v>-1.979536152796726</v>
       </c>
       <c r="H58" t="n">
-        <v>366.9691048979167</v>
+        <v>367.528369027039</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -2501,10 +2501,10 @@
         <v>2140</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.97275204359673</v>
+        <v>-1.979536152796726</v>
       </c>
       <c r="H59" t="n">
-        <v>366.9691048979167</v>
+        <v>367.528369027039</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -2536,10 +2536,10 @@
         <v>2140</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.97275204359673</v>
+        <v>-1.979536152796726</v>
       </c>
       <c r="H60" t="n">
-        <v>366.9691048979167</v>
+        <v>367.528369027039</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -2571,10 +2571,10 @@
         <v>1611</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.97275204359673</v>
+        <v>-1.979536152796726</v>
       </c>
       <c r="H61" t="n">
-        <v>366.9691048979167</v>
+        <v>367.528369027039</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2606,10 +2606,10 @@
         <v>2699</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.97275204359673</v>
+        <v>-1.979536152796726</v>
       </c>
       <c r="H62" t="n">
-        <v>366.9691048979167</v>
+        <v>367.528369027039</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>275</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.04778156996587031</v>
+        <v>-0.2299829642248722</v>
       </c>
       <c r="H63" t="n">
-        <v>109.2120235555007</v>
+        <v>109.0556105776492</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -2676,10 +2676,10 @@
         <v>275</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.289617486338798</v>
+        <v>-1.330895795246801</v>
       </c>
       <c r="H64" t="n">
-        <v>130.857230880676</v>
+        <v>131.0994862275318</v>
       </c>
       <c r="I64" t="b">
         <v>1</v>
@@ -2711,10 +2711,10 @@
         <v>319</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.289617486338798</v>
+        <v>-1.330895795246801</v>
       </c>
       <c r="H65" t="n">
-        <v>130.857230880676</v>
+        <v>131.0994862275318</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -2746,10 +2746,10 @@
         <v>507</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.289617486338798</v>
+        <v>-1.330895795246801</v>
       </c>
       <c r="H66" t="n">
-        <v>130.857230880676</v>
+        <v>131.0994862275318</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -2781,10 +2781,10 @@
         <v>564</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.800788954635109</v>
+        <v>-1.758893280632411</v>
       </c>
       <c r="H67" t="n">
-        <v>98.34235674322184</v>
+        <v>98.33837908945355</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -2816,10 +2816,10 @@
         <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.75</v>
+        <v>-1.889140271493213</v>
       </c>
       <c r="H68" t="n">
-        <v>147.748346616012</v>
+        <v>148.0537498759164</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -2851,10 +2851,10 @@
         <v>1116</v>
       </c>
       <c r="G69" t="n">
-        <v>11.68148148148148</v>
+        <v>11.83168316831683</v>
       </c>
       <c r="H69" t="n">
-        <v>189.8889716707008</v>
+        <v>190.1107849569862</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -2886,10 +2886,10 @@
         <v>1116</v>
       </c>
       <c r="G70" t="n">
-        <v>11.68148148148148</v>
+        <v>11.83168316831683</v>
       </c>
       <c r="H70" t="n">
-        <v>189.8889716707008</v>
+        <v>190.1107849569862</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         <v>1635</v>
       </c>
       <c r="G71" t="n">
-        <v>11.68148148148148</v>
+        <v>11.83168316831683</v>
       </c>
       <c r="H71" t="n">
-        <v>189.8889716707008</v>
+        <v>190.1107849569862</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -2956,10 +2956,10 @@
         <v>300</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.757009345794392</v>
+        <v>-4.4</v>
       </c>
       <c r="H72" t="n">
-        <v>46.95578834282456</v>
+        <v>46.19265675907306</v>
       </c>
       <c r="I72" t="b">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>8915</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9059233449477352</v>
+        <v>0.6846689895470384</v>
       </c>
       <c r="H73" t="n">
-        <v>241.8019573878909</v>
+        <v>241.8141438139921</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3026,10 +3026,10 @@
         <v>6281</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9059233449477352</v>
+        <v>0.6846689895470384</v>
       </c>
       <c r="H74" t="n">
-        <v>241.8019573878909</v>
+        <v>241.8141438139921</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>3097</v>
       </c>
       <c r="G75" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H75" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3096,10 +3096,10 @@
         <v>1215</v>
       </c>
       <c r="G76" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H76" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3131,10 +3131,10 @@
         <v>1215</v>
       </c>
       <c r="G77" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H77" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3166,10 +3166,10 @@
         <v>3179</v>
       </c>
       <c r="G78" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H78" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3201,10 +3201,10 @@
         <v>2883</v>
       </c>
       <c r="G79" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H79" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3236,10 +3236,10 @@
         <v>3542</v>
       </c>
       <c r="G80" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H80" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -3271,10 +3271,10 @@
         <v>3542</v>
       </c>
       <c r="G81" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H81" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3306,10 +3306,10 @@
         <v>13496</v>
       </c>
       <c r="G82" t="n">
-        <v>26.12302070645554</v>
+        <v>27.66382460414129</v>
       </c>
       <c r="H82" t="n">
-        <v>1178.412001213305</v>
+        <v>1178.214259168008</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3376,10 +3376,10 @@
         <v>405</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.617647058823529</v>
+        <v>-4.666666666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>107.2411189534175</v>
+        <v>108.8157699732525</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3411,10 +3411,10 @@
         <v>913</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.522598870056497</v>
+        <v>-1.555240793201133</v>
       </c>
       <c r="H85" t="n">
-        <v>107.4070956240503</v>
+        <v>107.536240889099</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -3446,10 +3446,10 @@
         <v>894</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.9750778816199377</v>
+        <v>-0.8875</v>
       </c>
       <c r="H86" t="n">
-        <v>116.0199848170437</v>
+        <v>116.1980520666127</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -3551,10 +3551,10 @@
         <v>478</v>
       </c>
       <c r="G89" t="n">
-        <v>1.322195704057279</v>
+        <v>1.591885441527446</v>
       </c>
       <c r="H89" t="n">
-        <v>54.69833547102984</v>
+        <v>55.06258319374152</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -3586,10 +3586,10 @@
         <v>446</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7412280701754386</v>
+        <v>-0.2807017543859649</v>
       </c>
       <c r="H90" t="n">
-        <v>61.06751273911185</v>
+        <v>61.19017927767499</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -3621,10 +3621,10 @@
         <v>684</v>
       </c>
       <c r="G91" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H91" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -3656,10 +3656,10 @@
         <v>684</v>
       </c>
       <c r="G92" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H92" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I92" t="b">
         <v>1</v>
@@ -3691,10 +3691,10 @@
         <v>1369</v>
       </c>
       <c r="G93" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H93" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -3726,10 +3726,10 @@
         <v>219</v>
       </c>
       <c r="G94" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H94" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I94" t="b">
         <v>1</v>
@@ -3761,10 +3761,10 @@
         <v>219</v>
       </c>
       <c r="G95" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H95" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -3796,10 +3796,10 @@
         <v>234</v>
       </c>
       <c r="G96" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H96" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I96" t="b">
         <v>1</v>
@@ -3831,10 +3831,10 @@
         <v>1417</v>
       </c>
       <c r="G97" t="n">
-        <v>3.58974358974359</v>
+        <v>3.772609819121447</v>
       </c>
       <c r="H97" t="n">
-        <v>143.1392293156763</v>
+        <v>143.6604191675605</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -3866,10 +3866,10 @@
         <v>1959</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.745901639344262</v>
+        <v>-0.9178082191780822</v>
       </c>
       <c r="H98" t="n">
-        <v>344.4795529953569</v>
+        <v>344.9936065658625</v>
       </c>
       <c r="I98" t="b">
         <v>1</v>
@@ -3971,10 +3971,10 @@
         <v>92</v>
       </c>
       <c r="G101" t="n">
-        <v>5.11578947368421</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>54.62986930590937</v>
+        <v>54.60905544110989</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -4041,10 +4041,10 @@
         <v>1046</v>
       </c>
       <c r="G103" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H103" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -4076,10 +4076,10 @@
         <v>2449</v>
       </c>
       <c r="G104" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H104" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4111,10 +4111,10 @@
         <v>2449</v>
       </c>
       <c r="G105" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H105" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I105" t="b">
         <v>1</v>
@@ -4146,10 +4146,10 @@
         <v>1404</v>
       </c>
       <c r="G106" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H106" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I106" t="b">
         <v>1</v>
@@ -4181,10 +4181,10 @@
         <v>692</v>
       </c>
       <c r="G107" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H107" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -4216,10 +4216,10 @@
         <v>692</v>
       </c>
       <c r="G108" t="n">
-        <v>7.559154929577465</v>
+        <v>5.922425952045134</v>
       </c>
       <c r="H108" t="n">
-        <v>323.932490083761</v>
+        <v>327.8150417550821</v>
       </c>
       <c r="I108" t="b">
         <v>1</v>
@@ -4251,10 +4251,10 @@
         <v>4987</v>
       </c>
       <c r="G109" t="n">
-        <v>5.516765285996056</v>
+        <v>5.512871287128712</v>
       </c>
       <c r="H109" t="n">
-        <v>354.8466757008147</v>
+        <v>355.5395133710572</v>
       </c>
       <c r="I109" t="b">
         <v>1</v>
@@ -4286,10 +4286,10 @@
         <v>3234</v>
       </c>
       <c r="G110" t="n">
-        <v>5.516765285996056</v>
+        <v>5.512871287128712</v>
       </c>
       <c r="H110" t="n">
-        <v>354.8466757008147</v>
+        <v>355.5395133710572</v>
       </c>
       <c r="I110" t="b">
         <v>1</v>
@@ -4321,10 +4321,10 @@
         <v>3234</v>
       </c>
       <c r="G111" t="n">
-        <v>5.516765285996056</v>
+        <v>5.512871287128712</v>
       </c>
       <c r="H111" t="n">
-        <v>354.8466757008147</v>
+        <v>355.5395133710572</v>
       </c>
       <c r="I111" t="b">
         <v>1</v>
@@ -4356,10 +4356,10 @@
         <v>417</v>
       </c>
       <c r="G112" t="n">
-        <v>-17.8433734939759</v>
+        <v>-17.80239520958084</v>
       </c>
       <c r="H112" t="n">
-        <v>161.6636974618465</v>
+        <v>161.1825740050801</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -4426,10 +4426,10 @@
         <v>1687</v>
       </c>
       <c r="G114" t="n">
-        <v>3.682926829268293</v>
+        <v>3.81651376146789</v>
       </c>
       <c r="H114" t="n">
-        <v>133.7503611060346</v>
+        <v>133.9458157873921</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -4461,10 +4461,10 @@
         <v>1420</v>
       </c>
       <c r="G115" t="n">
-        <v>3.682926829268293</v>
+        <v>3.81651376146789</v>
       </c>
       <c r="H115" t="n">
-        <v>133.7503611060346</v>
+        <v>133.9458157873921</v>
       </c>
       <c r="I115" t="b">
         <v>1</v>
@@ -4496,10 +4496,10 @@
         <v>201</v>
       </c>
       <c r="G116" t="n">
-        <v>4.864864864864865</v>
+        <v>4.27027027027027</v>
       </c>
       <c r="H116" t="n">
-        <v>37.33196586942182</v>
+        <v>37.22652030224976</v>
       </c>
       <c r="I116" t="b">
         <v>1</v>
@@ -4531,10 +4531,10 @@
         <v>885</v>
       </c>
       <c r="G117" t="n">
-        <v>4.263565891472868</v>
+        <v>3.715384615384616</v>
       </c>
       <c r="H117" t="n">
-        <v>74.35110113717266</v>
+        <v>74.20673349745664</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -4566,10 +4566,10 @@
         <v>847</v>
       </c>
       <c r="G118" t="n">
-        <v>7.036036036036036</v>
+        <v>7.026785714285714</v>
       </c>
       <c r="H118" t="n">
-        <v>104.309759669582</v>
+        <v>103.8859787139683</v>
       </c>
       <c r="I118" t="b">
         <v>1</v>
@@ -4601,10 +4601,10 @@
         <v>353</v>
       </c>
       <c r="G119" t="n">
-        <v>7.556016597510373</v>
+        <v>7.904166666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>76.76483281685513</v>
+        <v>77.07907138883147</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -4636,10 +4636,10 @@
         <v>353</v>
       </c>
       <c r="G120" t="n">
-        <v>7.556016597510373</v>
+        <v>7.904166666666667</v>
       </c>
       <c r="H120" t="n">
-        <v>76.76483281685513</v>
+        <v>77.07907138883147</v>
       </c>
       <c r="I120" t="b">
         <v>1</v>
@@ -4671,10 +4671,10 @@
         <v>272</v>
       </c>
       <c r="G121" t="n">
-        <v>7.556016597510373</v>
+        <v>7.904166666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>76.76483281685513</v>
+        <v>77.07907138883147</v>
       </c>
       <c r="I121" t="b">
         <v>1</v>
@@ -4706,10 +4706,10 @@
         <v>850</v>
       </c>
       <c r="G122" t="n">
-        <v>2.396</v>
+        <v>2.487903225806452</v>
       </c>
       <c r="H122" t="n">
-        <v>120.4945931230424</v>
+        <v>120.7301666213869</v>
       </c>
       <c r="I122" t="b">
         <v>1</v>
@@ -4741,10 +4741,10 @@
         <v>406</v>
       </c>
       <c r="G123" t="n">
-        <v>2.396</v>
+        <v>2.487903225806452</v>
       </c>
       <c r="H123" t="n">
-        <v>120.4945931230424</v>
+        <v>120.7301666213869</v>
       </c>
       <c r="I123" t="b">
         <v>1</v>
@@ -4776,10 +4776,10 @@
         <v>491</v>
       </c>
       <c r="G124" t="n">
-        <v>2.396</v>
+        <v>2.487903225806452</v>
       </c>
       <c r="H124" t="n">
-        <v>120.4945931230424</v>
+        <v>120.7301666213869</v>
       </c>
       <c r="I124" t="b">
         <v>1</v>
@@ -4811,10 +4811,10 @@
         <v>309</v>
       </c>
       <c r="G125" t="n">
-        <v>-5.25</v>
+        <v>-5.557692307692307</v>
       </c>
       <c r="H125" t="n">
-        <v>61.98319664769369</v>
+        <v>61.99633558479634</v>
       </c>
       <c r="I125" t="b">
         <v>1</v>
@@ -4846,10 +4846,10 @@
         <v>2806</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.189695550351288</v>
+        <v>-0.01886792452830189</v>
       </c>
       <c r="H126" t="n">
-        <v>74.71909263613411</v>
+        <v>74.68575378277116</v>
       </c>
       <c r="I126" t="b">
         <v>1</v>
@@ -4881,10 +4881,10 @@
         <v>285</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.189695550351288</v>
+        <v>-0.01886792452830189</v>
       </c>
       <c r="H127" t="n">
-        <v>74.71909263613411</v>
+        <v>74.68575378277116</v>
       </c>
       <c r="I127" t="b">
         <v>1</v>
@@ -4951,10 +4951,10 @@
         <v>296</v>
       </c>
       <c r="G129" t="n">
-        <v>-8.946745562130177</v>
+        <v>-9.491017964071856</v>
       </c>
       <c r="H129" t="n">
-        <v>128.9684466926767</v>
+        <v>129.6486386243615</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>456</v>
       </c>
       <c r="G130" t="n">
-        <v>9.104477611940299</v>
+        <v>10</v>
       </c>
       <c r="H130" t="n">
-        <v>114.052105892154</v>
+        <v>114.6884743723019</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -5021,10 +5021,10 @@
         <v>456</v>
       </c>
       <c r="G131" t="n">
-        <v>9.104477611940299</v>
+        <v>10</v>
       </c>
       <c r="H131" t="n">
-        <v>114.052105892154</v>
+        <v>114.6884743723019</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
@@ -5056,10 +5056,10 @@
         <v>621</v>
       </c>
       <c r="G132" t="n">
-        <v>4.394117647058824</v>
+        <v>4.372781065088757</v>
       </c>
       <c r="H132" t="n">
-        <v>84.229349974613</v>
+        <v>84.47919984884204</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -5091,10 +5091,10 @@
         <v>2984</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.78804347826087</v>
+        <v>-1.79291553133515</v>
       </c>
       <c r="H133" t="n">
-        <v>219.4277637580947</v>
+        <v>219.7273040529886</v>
       </c>
       <c r="I133" t="b">
         <v>1</v>
@@ -5126,10 +5126,10 @@
         <v>252</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.3452380952380952</v>
+        <v>-0.3922155688622754</v>
       </c>
       <c r="H134" t="n">
-        <v>124.0770578139409</v>
+        <v>124.4461317156159</v>
       </c>
       <c r="I134" t="b">
         <v>1</v>
@@ -5161,10 +5161,10 @@
         <v>298</v>
       </c>
       <c r="G135" t="n">
-        <v>-4.81</v>
+        <v>-4.75</v>
       </c>
       <c r="H135" t="n">
-        <v>65.28162687985655</v>
+        <v>65.2888492652753</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
@@ -5196,10 +5196,10 @@
         <v>642</v>
       </c>
       <c r="G136" t="n">
-        <v>-5.518382352941177</v>
+        <v>-5.442804428044281</v>
       </c>
       <c r="H136" t="n">
-        <v>235.6725314844022</v>
+        <v>236.105256372917</v>
       </c>
       <c r="I136" t="b">
         <v>1</v>
@@ -5231,10 +5231,10 @@
         <v>549</v>
       </c>
       <c r="G137" t="n">
-        <v>-5.518382352941177</v>
+        <v>-5.442804428044281</v>
       </c>
       <c r="H137" t="n">
-        <v>235.6725314844022</v>
+        <v>236.105256372917</v>
       </c>
       <c r="I137" t="b">
         <v>1</v>
@@ -5266,10 +5266,10 @@
         <v>214</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.09677419354838709</v>
+        <v>-0.08436724565756824</v>
       </c>
       <c r="H138" t="n">
-        <v>94.68553906471804</v>
+        <v>94.6647545289901</v>
       </c>
       <c r="I138" t="b">
         <v>1</v>
@@ -5301,10 +5301,10 @@
         <v>126</v>
       </c>
       <c r="G139" t="n">
-        <v>8.855172413793104</v>
+        <v>8.643835616438356</v>
       </c>
       <c r="H139" t="n">
-        <v>151.9511973605682</v>
+        <v>151.4358286638852</v>
       </c>
       <c r="I139" t="b">
         <v>1</v>
@@ -5336,10 +5336,10 @@
         <v>126</v>
       </c>
       <c r="G140" t="n">
-        <v>8.855172413793104</v>
+        <v>8.643835616438356</v>
       </c>
       <c r="H140" t="n">
-        <v>151.9511973605682</v>
+        <v>151.4358286638852</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -5371,10 +5371,10 @@
         <v>746</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.395348837209302</v>
+        <v>-0.5906735751295337</v>
       </c>
       <c r="H141" t="n">
-        <v>178.0988003121053</v>
+        <v>177.8201727444606</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -5406,10 +5406,10 @@
         <v>1218</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.522033898305085</v>
+        <v>-0.8976109215017065</v>
       </c>
       <c r="H142" t="n">
-        <v>241.9123049544322</v>
+        <v>242.6221548591953</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -5441,10 +5441,10 @@
         <v>575</v>
       </c>
       <c r="G143" t="n">
-        <v>1.119047619047619</v>
+        <v>1.390243902439024</v>
       </c>
       <c r="H143" t="n">
-        <v>96.23984327302901</v>
+        <v>97.41916599129263</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -5476,10 +5476,10 @@
         <v>171</v>
       </c>
       <c r="G144" t="n">
-        <v>35.46739130434783</v>
+        <v>37.07608695652174</v>
       </c>
       <c r="H144" t="n">
-        <v>313.3393151162421</v>
+        <v>312.9766074078379</v>
       </c>
       <c r="I144" t="b">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>171</v>
       </c>
       <c r="G145" t="n">
-        <v>35.46739130434783</v>
+        <v>37.07608695652174</v>
       </c>
       <c r="H145" t="n">
-        <v>313.3393151162421</v>
+        <v>312.9766074078379</v>
       </c>
       <c r="I145" t="b">
         <v>1</v>
@@ -5546,10 +5546,10 @@
         <v>839</v>
       </c>
       <c r="G146" t="n">
-        <v>35.46739130434783</v>
+        <v>37.07608695652174</v>
       </c>
       <c r="H146" t="n">
-        <v>313.3393151162421</v>
+        <v>312.9766074078379</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -5581,10 +5581,10 @@
         <v>1631</v>
       </c>
       <c r="G147" t="n">
-        <v>-3.418786692759296</v>
+        <v>-3.265748031496063</v>
       </c>
       <c r="H147" t="n">
-        <v>223.0303346098285</v>
+        <v>223.6958572180544</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -5616,10 +5616,10 @@
         <v>546</v>
       </c>
       <c r="G148" t="n">
-        <v>-3.418786692759296</v>
+        <v>-3.265748031496063</v>
       </c>
       <c r="H148" t="n">
-        <v>223.0303346098285</v>
+        <v>223.6958572180544</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -5651,10 +5651,10 @@
         <v>488</v>
       </c>
       <c r="G149" t="n">
-        <v>-3.418786692759296</v>
+        <v>-3.265748031496063</v>
       </c>
       <c r="H149" t="n">
-        <v>223.0303346098285</v>
+        <v>223.6958572180544</v>
       </c>
       <c r="I149" t="b">
         <v>1</v>
@@ -5686,10 +5686,10 @@
         <v>647</v>
       </c>
       <c r="G150" t="n">
-        <v>-3.418786692759296</v>
+        <v>-3.265748031496063</v>
       </c>
       <c r="H150" t="n">
-        <v>223.0303346098285</v>
+        <v>223.6958572180544</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>412</v>
       </c>
       <c r="G151" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="H151" t="n">
-        <v>130.2257910567133</v>
+        <v>130.3675283455186</v>
       </c>
       <c r="I151" t="b">
         <v>1</v>
@@ -5756,10 +5756,10 @@
         <v>1110</v>
       </c>
       <c r="G152" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H152" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I152" t="b">
         <v>1</v>
@@ -5791,10 +5791,10 @@
         <v>722</v>
       </c>
       <c r="G153" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H153" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I153" t="b">
         <v>1</v>
@@ -5826,10 +5826,10 @@
         <v>1198</v>
       </c>
       <c r="G154" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H154" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I154" t="b">
         <v>1</v>
@@ -5861,10 +5861,10 @@
         <v>898</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H155" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I155" t="b">
         <v>1</v>
@@ -5896,10 +5896,10 @@
         <v>3396</v>
       </c>
       <c r="G156" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H156" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
@@ -5931,10 +5931,10 @@
         <v>2522</v>
       </c>
       <c r="G157" t="n">
-        <v>-2.186259541984733</v>
+        <v>-2.080916030534351</v>
       </c>
       <c r="H157" t="n">
-        <v>330.6102070191164</v>
+        <v>330.5920245782647</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
@@ -5966,10 +5966,10 @@
         <v>135</v>
       </c>
       <c r="G158" t="n">
-        <v>-4.517857142857143</v>
+        <v>-4.513513513513513</v>
       </c>
       <c r="H158" t="n">
-        <v>112.5247506021209</v>
+        <v>113.0348188403479</v>
       </c>
       <c r="I158" t="b">
         <v>1</v>
@@ -6001,10 +6001,10 @@
         <v>1310</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.691542288557214</v>
+        <v>-1.648514851485148</v>
       </c>
       <c r="H159" t="n">
-        <v>210.6567691248241</v>
+        <v>210.1267095171619</v>
       </c>
       <c r="I159" t="b">
         <v>1</v>
@@ -6036,10 +6036,10 @@
         <v>210</v>
       </c>
       <c r="G160" t="n">
-        <v>0.3395061728395062</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="H160" t="n">
-        <v>67.6332972848284</v>
+        <v>67.84098998658739</v>
       </c>
       <c r="I160" t="b">
         <v>1</v>
@@ -6071,10 +6071,10 @@
         <v>5728</v>
       </c>
       <c r="G161" t="n">
-        <v>0.3395061728395062</v>
+        <v>0.4596273291925466</v>
       </c>
       <c r="H161" t="n">
-        <v>67.6332972848284</v>
+        <v>67.84098998658739</v>
       </c>
       <c r="I161" t="b">
         <v>1</v>
@@ -6176,10 +6176,10 @@
         <v>701</v>
       </c>
       <c r="G164" t="n">
-        <v>-5.972477064220183</v>
+        <v>-5.541666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>173.4445532839875</v>
+        <v>174.1416107120735</v>
       </c>
       <c r="I164" t="b">
         <v>1</v>
@@ -6211,10 +6211,10 @@
         <v>5026</v>
       </c>
       <c r="G165" t="n">
-        <v>-4.392568659127625</v>
+        <v>-4.085760517799352</v>
       </c>
       <c r="H165" t="n">
-        <v>714.6890848720872</v>
+        <v>715.2540531464681</v>
       </c>
       <c r="I165" t="b">
         <v>1</v>
@@ -6246,10 +6246,10 @@
         <v>1598</v>
       </c>
       <c r="G166" t="n">
-        <v>-4.392568659127625</v>
+        <v>-4.085760517799352</v>
       </c>
       <c r="H166" t="n">
-        <v>714.6890848720872</v>
+        <v>715.2540531464681</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
@@ -6281,10 +6281,10 @@
         <v>4230</v>
       </c>
       <c r="G167" t="n">
-        <v>-4.392568659127625</v>
+        <v>-4.085760517799352</v>
       </c>
       <c r="H167" t="n">
-        <v>714.6890848720872</v>
+        <v>715.2540531464681</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
@@ -6316,10 +6316,10 @@
         <v>373</v>
       </c>
       <c r="G168" t="n">
-        <v>6.395833333333333</v>
+        <v>5.229166666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>132.8881982932045</v>
+        <v>132.5375401967439</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -6351,10 +6351,10 @@
         <v>373</v>
       </c>
       <c r="G169" t="n">
-        <v>6.395833333333333</v>
+        <v>5.229166666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>132.8881982932045</v>
+        <v>132.5375401967439</v>
       </c>
       <c r="I169" t="b">
         <v>1</v>
@@ -6421,10 +6421,10 @@
         <v>765</v>
       </c>
       <c r="G171" t="n">
-        <v>-3.921797004991681</v>
+        <v>-4.991680532445923</v>
       </c>
       <c r="H171" t="n">
-        <v>555.0058608165911</v>
+        <v>554.5927679514081</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
@@ -6456,10 +6456,10 @@
         <v>765</v>
       </c>
       <c r="G172" t="n">
-        <v>-3.921797004991681</v>
+        <v>-4.991680532445923</v>
       </c>
       <c r="H172" t="n">
-        <v>555.0058608165911</v>
+        <v>554.5927679514081</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
@@ -6491,10 +6491,10 @@
         <v>579</v>
       </c>
       <c r="G173" t="n">
-        <v>-1.155216284987277</v>
+        <v>-1.130102040816326</v>
       </c>
       <c r="H173" t="n">
-        <v>329.5987338207495</v>
+        <v>329.9864771498672</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
@@ -6526,10 +6526,10 @@
         <v>813</v>
       </c>
       <c r="G174" t="n">
-        <v>-1.155216284987277</v>
+        <v>-1.130102040816326</v>
       </c>
       <c r="H174" t="n">
-        <v>329.5987338207495</v>
+        <v>329.9864771498672</v>
       </c>
       <c r="I174" t="b">
         <v>1</v>
@@ -6561,10 +6561,10 @@
         <v>1050</v>
       </c>
       <c r="G175" t="n">
-        <v>-1.155216284987277</v>
+        <v>-1.130102040816326</v>
       </c>
       <c r="H175" t="n">
-        <v>329.5987338207495</v>
+        <v>329.9864771498672</v>
       </c>
       <c r="I175" t="b">
         <v>1</v>
@@ -6596,10 +6596,10 @@
         <v>1050</v>
       </c>
       <c r="G176" t="n">
-        <v>-1.155216284987277</v>
+        <v>-1.130102040816326</v>
       </c>
       <c r="H176" t="n">
-        <v>329.5987338207495</v>
+        <v>329.9864771498672</v>
       </c>
       <c r="I176" t="b">
         <v>1</v>
@@ -6631,10 +6631,10 @@
         <v>1023</v>
       </c>
       <c r="G177" t="n">
-        <v>5.782312925170068</v>
+        <v>5.75</v>
       </c>
       <c r="H177" t="n">
-        <v>162.3436873910089</v>
+        <v>161.7914957444862</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
@@ -6666,10 +6666,10 @@
         <v>1023</v>
       </c>
       <c r="G178" t="n">
-        <v>5.782312925170068</v>
+        <v>5.75</v>
       </c>
       <c r="H178" t="n">
-        <v>162.3436873910089</v>
+        <v>161.7914957444862</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
@@ -6701,10 +6701,10 @@
         <v>284</v>
       </c>
       <c r="G179" t="n">
-        <v>5.782312925170068</v>
+        <v>5.75</v>
       </c>
       <c r="H179" t="n">
-        <v>162.3436873910089</v>
+        <v>161.7914957444862</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
@@ -6806,10 +6806,10 @@
         <v>1037</v>
       </c>
       <c r="G182" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H182" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
@@ -6841,10 +6841,10 @@
         <v>500</v>
       </c>
       <c r="G183" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H183" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I183" t="b">
         <v>1</v>
@@ -6876,10 +6876,10 @@
         <v>1037</v>
       </c>
       <c r="G184" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H184" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -6911,10 +6911,10 @@
         <v>672</v>
       </c>
       <c r="G185" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H185" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
@@ -6946,10 +6946,10 @@
         <v>672</v>
       </c>
       <c r="G186" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H186" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I186" t="b">
         <v>1</v>
@@ -6981,10 +6981,10 @@
         <v>339</v>
       </c>
       <c r="G187" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H187" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
@@ -7016,10 +7016,10 @@
         <v>339</v>
       </c>
       <c r="G188" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H188" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I188" t="b">
         <v>1</v>
@@ -7051,10 +7051,10 @@
         <v>535</v>
       </c>
       <c r="G189" t="n">
-        <v>4.028764805414552</v>
+        <v>3.903225806451613</v>
       </c>
       <c r="H189" t="n">
-        <v>156.6323478452729</v>
+        <v>156.8348251745628</v>
       </c>
       <c r="I189" t="b">
         <v>1</v>
@@ -7086,10 +7086,10 @@
         <v>408</v>
       </c>
       <c r="G190" t="n">
-        <v>7.606451612903226</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="H190" t="n">
-        <v>79.59509155104156</v>
+        <v>79.80488654362033</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
@@ -7121,10 +7121,10 @@
         <v>433</v>
       </c>
       <c r="G191" t="n">
-        <v>7.606451612903226</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="H191" t="n">
-        <v>79.59509155104156</v>
+        <v>79.80488654362033</v>
       </c>
       <c r="I191" t="b">
         <v>1</v>
@@ -7156,10 +7156,10 @@
         <v>433</v>
       </c>
       <c r="G192" t="n">
-        <v>7.606451612903226</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="H192" t="n">
-        <v>79.59509155104156</v>
+        <v>79.80488654362033</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
@@ -7191,10 +7191,10 @@
         <v>366</v>
       </c>
       <c r="G193" t="n">
-        <v>-6.866666666666666</v>
+        <v>-6.990476190476191</v>
       </c>
       <c r="H193" t="n">
-        <v>154.0900752224208</v>
+        <v>154.0791813944835</v>
       </c>
       <c r="I193" t="b">
         <v>1</v>
@@ -7226,10 +7226,10 @@
         <v>966</v>
       </c>
       <c r="G194" t="n">
-        <v>2.924342105263158</v>
+        <v>2.723684210526316</v>
       </c>
       <c r="H194" t="n">
-        <v>105.0908024769166</v>
+        <v>105.1316444821934</v>
       </c>
       <c r="I194" t="b">
         <v>1</v>
@@ -7261,10 +7261,10 @@
         <v>223</v>
       </c>
       <c r="G195" t="n">
-        <v>18.56410256410257</v>
+        <v>17.02564102564103</v>
       </c>
       <c r="H195" t="n">
-        <v>96.83838812322824</v>
+        <v>97.61457159868122</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
@@ -7296,10 +7296,10 @@
         <v>230</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3294797687861272</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="H196" t="n">
-        <v>59.38934500656817</v>
+        <v>59.53956681333742</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
@@ -7331,10 +7331,10 @@
         <v>219</v>
       </c>
       <c r="G197" t="n">
-        <v>0.3294797687861272</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="H197" t="n">
-        <v>59.38934500656817</v>
+        <v>59.53956681333742</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
@@ -7366,10 +7366,10 @@
         <v>315</v>
       </c>
       <c r="G198" t="n">
-        <v>0.3294797687861272</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="H198" t="n">
-        <v>59.38934500656817</v>
+        <v>59.53956681333742</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
@@ -7401,10 +7401,10 @@
         <v>357</v>
       </c>
       <c r="G199" t="n">
-        <v>2.59515570934256</v>
+        <v>2.690972222222222</v>
       </c>
       <c r="H199" t="n">
-        <v>79.16762352969965</v>
+        <v>79.29417500669427</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
@@ -7436,10 +7436,10 @@
         <v>357</v>
       </c>
       <c r="G200" t="n">
-        <v>2.59515570934256</v>
+        <v>2.690972222222222</v>
       </c>
       <c r="H200" t="n">
-        <v>79.16762352969965</v>
+        <v>79.29417500669427</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
@@ -7471,10 +7471,10 @@
         <v>1199</v>
       </c>
       <c r="G201" t="n">
-        <v>6.304347826086956</v>
+        <v>6.774897680763984</v>
       </c>
       <c r="H201" t="n">
-        <v>265.8463466656868</v>
+        <v>266.2564703493466</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
@@ -7506,10 +7506,10 @@
         <v>368</v>
       </c>
       <c r="G202" t="n">
-        <v>6.304347826086956</v>
+        <v>6.774897680763984</v>
       </c>
       <c r="H202" t="n">
-        <v>265.8463466656868</v>
+        <v>266.2564703493466</v>
       </c>
       <c r="I202" t="b">
         <v>1</v>
@@ -7541,10 +7541,10 @@
         <v>1199</v>
       </c>
       <c r="G203" t="n">
-        <v>6.304347826086956</v>
+        <v>6.774897680763984</v>
       </c>
       <c r="H203" t="n">
-        <v>265.8463466656868</v>
+        <v>266.2564703493466</v>
       </c>
       <c r="I203" t="b">
         <v>1</v>
@@ -7576,10 +7576,10 @@
         <v>504</v>
       </c>
       <c r="G204" t="n">
-        <v>6.304347826086956</v>
+        <v>6.774897680763984</v>
       </c>
       <c r="H204" t="n">
-        <v>265.8463466656868</v>
+        <v>266.2564703493466</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
@@ -7611,10 +7611,10 @@
         <v>504</v>
       </c>
       <c r="G205" t="n">
-        <v>6.304347826086956</v>
+        <v>6.774897680763984</v>
       </c>
       <c r="H205" t="n">
-        <v>265.8463466656868</v>
+        <v>266.2564703493466</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
@@ -7681,10 +7681,10 @@
         <v>185</v>
       </c>
       <c r="G207" t="n">
-        <v>-0.03783783783783784</v>
+        <v>-0.1195652173913044</v>
       </c>
       <c r="H207" t="n">
-        <v>51.93143133514654</v>
+        <v>52.06119610324605</v>
       </c>
       <c r="I207" t="b">
         <v>1</v>
@@ -7821,10 +7821,10 @@
         <v>440</v>
       </c>
       <c r="G211" t="n">
-        <v>-2.856850715746421</v>
+        <v>-2.560327198364008</v>
       </c>
       <c r="H211" t="n">
-        <v>92.03721159808254</v>
+        <v>92.2254506668978</v>
       </c>
       <c r="I211" t="b">
         <v>1</v>
@@ -7926,10 +7926,10 @@
         <v>1718</v>
       </c>
       <c r="G214" t="n">
-        <v>6.261345852895149</v>
+        <v>6.396551724137931</v>
       </c>
       <c r="H214" t="n">
-        <v>325.1160327115315</v>
+        <v>325.2428935904748</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
@@ -7961,10 +7961,10 @@
         <v>1718</v>
       </c>
       <c r="G215" t="n">
-        <v>6.261345852895149</v>
+        <v>6.396551724137931</v>
       </c>
       <c r="H215" t="n">
-        <v>325.1160327115315</v>
+        <v>325.2428935904748</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
@@ -7996,10 +7996,10 @@
         <v>4845</v>
       </c>
       <c r="G216" t="n">
-        <v>6.261345852895149</v>
+        <v>6.396551724137931</v>
       </c>
       <c r="H216" t="n">
-        <v>325.1160327115315</v>
+        <v>325.2428935904748</v>
       </c>
       <c r="I216" t="b">
         <v>1</v>
@@ -8031,10 +8031,10 @@
         <v>12445</v>
       </c>
       <c r="G217" t="n">
-        <v>6.261345852895149</v>
+        <v>6.396551724137931</v>
       </c>
       <c r="H217" t="n">
-        <v>325.1160327115315</v>
+        <v>325.2428935904748</v>
       </c>
       <c r="I217" t="b">
         <v>1</v>
@@ -8066,10 +8066,10 @@
         <v>3448</v>
       </c>
       <c r="G218" t="n">
-        <v>6.261345852895149</v>
+        <v>6.396551724137931</v>
       </c>
       <c r="H218" t="n">
-        <v>325.1160327115315</v>
+        <v>325.2428935904748</v>
       </c>
       <c r="I218" t="b">
         <v>1</v>
@@ -8206,10 +8206,10 @@
         <v>559</v>
       </c>
       <c r="G222" t="n">
-        <v>2.161290322580645</v>
+        <v>2.132427843803056</v>
       </c>
       <c r="H222" t="n">
-        <v>73.98091863542766</v>
+        <v>73.96381343837845</v>
       </c>
       <c r="I222" t="b">
         <v>1</v>
@@ -8241,10 +8241,10 @@
         <v>314</v>
       </c>
       <c r="G223" t="n">
-        <v>2.161290322580645</v>
+        <v>2.132427843803056</v>
       </c>
       <c r="H223" t="n">
-        <v>73.98091863542766</v>
+        <v>73.96381343837845</v>
       </c>
       <c r="I223" t="b">
         <v>1</v>
@@ -8276,10 +8276,10 @@
         <v>202</v>
       </c>
       <c r="G224" t="n">
-        <v>2.161290322580645</v>
+        <v>2.132427843803056</v>
       </c>
       <c r="H224" t="n">
-        <v>73.98091863542766</v>
+        <v>73.96381343837845</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
@@ -8311,10 +8311,10 @@
         <v>314</v>
       </c>
       <c r="G225" t="n">
-        <v>2.161290322580645</v>
+        <v>2.132427843803056</v>
       </c>
       <c r="H225" t="n">
-        <v>73.98091863542766</v>
+        <v>73.96381343837845</v>
       </c>
       <c r="I225" t="b">
         <v>1</v>
@@ -8346,10 +8346,10 @@
         <v>311</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.1993865030674846</v>
+        <v>-0.4276923076923077</v>
       </c>
       <c r="H226" t="n">
-        <v>29.86091038219084</v>
+        <v>28.77893341572979</v>
       </c>
       <c r="I226" t="b">
         <v>1</v>
@@ -8381,10 +8381,10 @@
         <v>305</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.736486486486486</v>
+        <v>-1.344594594594595</v>
       </c>
       <c r="H227" t="n">
-        <v>67.61851389660119</v>
+        <v>67.83430320767852</v>
       </c>
       <c r="I227" t="b">
         <v>1</v>
@@ -8556,10 +8556,10 @@
         <v>397</v>
       </c>
       <c r="G232" t="n">
-        <v>8.959390862944163</v>
+        <v>8.857868020304569</v>
       </c>
       <c r="H232" t="n">
-        <v>111.7124514629948</v>
+        <v>111.7470727440323</v>
       </c>
       <c r="I232" t="b">
         <v>1</v>
@@ -8591,10 +8591,10 @@
         <v>397</v>
       </c>
       <c r="G233" t="n">
-        <v>8.959390862944163</v>
+        <v>8.857868020304569</v>
       </c>
       <c r="H233" t="n">
-        <v>111.7124514629948</v>
+        <v>111.7470727440323</v>
       </c>
       <c r="I233" t="b">
         <v>1</v>
@@ -8626,10 +8626,10 @@
         <v>742</v>
       </c>
       <c r="G234" t="n">
-        <v>8.959390862944163</v>
+        <v>8.857868020304569</v>
       </c>
       <c r="H234" t="n">
-        <v>111.7124514629948</v>
+        <v>111.7470727440323</v>
       </c>
       <c r="I234" t="b">
         <v>1</v>
@@ -8661,10 +8661,10 @@
         <v>623</v>
       </c>
       <c r="G235" t="n">
-        <v>-0.8255813953488372</v>
+        <v>-0.7159533073929961</v>
       </c>
       <c r="H235" t="n">
-        <v>46.66017353597977</v>
+        <v>46.57496748319114</v>
       </c>
       <c r="I235" t="b">
         <v>1</v>
@@ -8696,10 +8696,10 @@
         <v>267</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.8785046728971962</v>
+        <v>-0.7222222222222222</v>
       </c>
       <c r="H236" t="n">
-        <v>47.21102970752481</v>
+        <v>47.01795905311342</v>
       </c>
       <c r="I236" t="b">
         <v>1</v>
@@ -8766,10 +8766,10 @@
         <v>221</v>
       </c>
       <c r="G238" t="n">
-        <v>3.039855072463768</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="H238" t="n">
-        <v>60.09001010890256</v>
+        <v>61.87978687516152</v>
       </c>
       <c r="I238" t="b">
         <v>1</v>
@@ -8801,10 +8801,10 @@
         <v>585</v>
       </c>
       <c r="G239" t="n">
-        <v>3.039855072463768</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="H239" t="n">
-        <v>60.09001010890256</v>
+        <v>61.87978687516152</v>
       </c>
       <c r="I239" t="b">
         <v>1</v>
@@ -8836,10 +8836,10 @@
         <v>585</v>
       </c>
       <c r="G240" t="n">
-        <v>3.039855072463768</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="H240" t="n">
-        <v>60.09001010890256</v>
+        <v>61.87978687516152</v>
       </c>
       <c r="I240" t="b">
         <v>1</v>
@@ -8976,10 +8976,10 @@
         <v>247</v>
       </c>
       <c r="G244" t="n">
-        <v>7.565789473684211</v>
+        <v>7.84</v>
       </c>
       <c r="H244" t="n">
-        <v>53.72233192414883</v>
+        <v>54.03053190908246</v>
       </c>
       <c r="I244" t="b">
         <v>1</v>
@@ -9011,10 +9011,10 @@
         <v>262</v>
       </c>
       <c r="G245" t="n">
-        <v>-1.775280898876404</v>
+        <v>-2.022727272727273</v>
       </c>
       <c r="H245" t="n">
-        <v>35.99329255979784</v>
+        <v>36.12334465768775</v>
       </c>
       <c r="I245" t="b">
         <v>1</v>
@@ -9046,10 +9046,10 @@
         <v>215</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05706521739130434</v>
+        <v>0.06539509536784741</v>
       </c>
       <c r="H246" t="n">
-        <v>62.15349290419581</v>
+        <v>62.17405566742308</v>
       </c>
       <c r="I246" t="b">
         <v>1</v>
@@ -9081,10 +9081,10 @@
         <v>215</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05706521739130434</v>
+        <v>0.06539509536784741</v>
       </c>
       <c r="H247" t="n">
-        <v>62.15349290419581</v>
+        <v>62.17405566742308</v>
       </c>
       <c r="I247" t="b">
         <v>1</v>
@@ -9116,10 +9116,10 @@
         <v>346</v>
       </c>
       <c r="G248" t="n">
-        <v>1.072327044025157</v>
+        <v>1.210031347962383</v>
       </c>
       <c r="H248" t="n">
-        <v>47.87606688824444</v>
+        <v>47.72948299378867</v>
       </c>
       <c r="I248" t="b">
         <v>1</v>
@@ -9151,10 +9151,10 @@
         <v>351</v>
       </c>
       <c r="G249" t="n">
-        <v>1.072327044025157</v>
+        <v>1.210031347962383</v>
       </c>
       <c r="H249" t="n">
-        <v>47.87606688824444</v>
+        <v>47.72948299378867</v>
       </c>
       <c r="I249" t="b">
         <v>1</v>
@@ -9186,10 +9186,10 @@
         <v>351</v>
       </c>
       <c r="G250" t="n">
-        <v>1.072327044025157</v>
+        <v>1.210031347962383</v>
       </c>
       <c r="H250" t="n">
-        <v>47.87606688824444</v>
+        <v>47.72948299378867</v>
       </c>
       <c r="I250" t="b">
         <v>1</v>
@@ -9256,10 +9256,10 @@
         <v>754</v>
       </c>
       <c r="G252" t="n">
-        <v>2.324189526184539</v>
+        <v>2.3175</v>
       </c>
       <c r="H252" t="n">
-        <v>121.4965210958899</v>
+        <v>121.6157171190301</v>
       </c>
       <c r="I252" t="b">
         <v>1</v>
@@ -9291,10 +9291,10 @@
         <v>498</v>
       </c>
       <c r="G253" t="n">
-        <v>2.324189526184539</v>
+        <v>2.3175</v>
       </c>
       <c r="H253" t="n">
-        <v>121.4965210958899</v>
+        <v>121.6157171190301</v>
       </c>
       <c r="I253" t="b">
         <v>1</v>
@@ -9326,10 +9326,10 @@
         <v>754</v>
       </c>
       <c r="G254" t="n">
-        <v>2.324189526184539</v>
+        <v>2.3175</v>
       </c>
       <c r="H254" t="n">
-        <v>121.4965210958899</v>
+        <v>121.6157171190301</v>
       </c>
       <c r="I254" t="b">
         <v>1</v>
@@ -9361,10 +9361,10 @@
         <v>388</v>
       </c>
       <c r="G255" t="n">
-        <v>2.324189526184539</v>
+        <v>2.3175</v>
       </c>
       <c r="H255" t="n">
-        <v>121.4965210958899</v>
+        <v>121.6157171190301</v>
       </c>
       <c r="I255" t="b">
         <v>1</v>
@@ -9396,10 +9396,10 @@
         <v>388</v>
       </c>
       <c r="G256" t="n">
-        <v>2.324189526184539</v>
+        <v>2.3175</v>
       </c>
       <c r="H256" t="n">
-        <v>121.4965210958899</v>
+        <v>121.6157171190301</v>
       </c>
       <c r="I256" t="b">
         <v>1</v>
@@ -9431,10 +9431,10 @@
         <v>79</v>
       </c>
       <c r="G257" t="n">
-        <v>3.313304721030043</v>
+        <v>3.221276595744681</v>
       </c>
       <c r="H257" t="n">
-        <v>66.31937255183946</v>
+        <v>66.01924394457204</v>
       </c>
       <c r="I257" t="b">
         <v>1</v>
@@ -9466,10 +9466,10 @@
         <v>600</v>
       </c>
       <c r="G258" t="n">
-        <v>3.313304721030043</v>
+        <v>3.221276595744681</v>
       </c>
       <c r="H258" t="n">
-        <v>66.31937255183946</v>
+        <v>66.01924394457204</v>
       </c>
       <c r="I258" t="b">
         <v>1</v>
@@ -9536,10 +9536,10 @@
         <v>438</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1609195402298851</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="H260" t="n">
-        <v>174.2886698245396</v>
+        <v>174.7909053685086</v>
       </c>
       <c r="I260" t="b">
         <v>1</v>
@@ -9571,10 +9571,10 @@
         <v>1056</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1609195402298851</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="H261" t="n">
-        <v>174.2886698245396</v>
+        <v>174.7909053685086</v>
       </c>
       <c r="I261" t="b">
         <v>1</v>
@@ -9606,10 +9606,10 @@
         <v>1056</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1609195402298851</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="H262" t="n">
-        <v>174.2886698245396</v>
+        <v>174.7909053685086</v>
       </c>
       <c r="I262" t="b">
         <v>1</v>
@@ -9641,10 +9641,10 @@
         <v>991</v>
       </c>
       <c r="G263" t="n">
-        <v>-2.099173553719008</v>
+        <v>-2.028925619834711</v>
       </c>
       <c r="H263" t="n">
-        <v>185.6500703743997</v>
+        <v>185.6438252817231</v>
       </c>
       <c r="I263" t="b">
         <v>1</v>
@@ -9676,10 +9676,10 @@
         <v>991</v>
       </c>
       <c r="G264" t="n">
-        <v>-2.099173553719008</v>
+        <v>-2.028925619834711</v>
       </c>
       <c r="H264" t="n">
-        <v>185.6500703743997</v>
+        <v>185.6438252817231</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
@@ -9711,10 +9711,10 @@
         <v>329</v>
       </c>
       <c r="G265" t="n">
-        <v>-0.3157894736842105</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="H265" t="n">
-        <v>108.2507145920566</v>
+        <v>108.0952012925055</v>
       </c>
       <c r="I265" t="b">
         <v>1</v>
@@ -9746,10 +9746,10 @@
         <v>197</v>
       </c>
       <c r="G266" t="n">
-        <v>3.613475177304965</v>
+        <v>3.803571428571428</v>
       </c>
       <c r="H266" t="n">
-        <v>140.3381892510281</v>
+        <v>140.8095920235449</v>
       </c>
       <c r="I266" t="b">
         <v>1</v>
@@ -9816,10 +9816,10 @@
         <v>267</v>
       </c>
       <c r="G268" t="n">
-        <v>-2.358208955223881</v>
+        <v>-2.399253731343284</v>
       </c>
       <c r="H268" t="n">
-        <v>94.21227946914696</v>
+        <v>94.18187600186813</v>
       </c>
       <c r="I268" t="b">
         <v>1</v>
@@ -9851,10 +9851,10 @@
         <v>1072</v>
       </c>
       <c r="G269" t="n">
-        <v>-2.358208955223881</v>
+        <v>-2.399253731343284</v>
       </c>
       <c r="H269" t="n">
-        <v>94.21227946914696</v>
+        <v>94.18187600186813</v>
       </c>
       <c r="I269" t="b">
         <v>1</v>
@@ -9886,10 +9886,10 @@
         <v>355</v>
       </c>
       <c r="G270" t="n">
-        <v>2.291666666666667</v>
+        <v>1.808333333333333</v>
       </c>
       <c r="H270" t="n">
-        <v>55.67453377878071</v>
+        <v>55.55030967296136</v>
       </c>
       <c r="I270" t="b">
         <v>1</v>
@@ -9956,10 +9956,10 @@
         <v>330</v>
       </c>
       <c r="G272" t="n">
-        <v>-1.217391304347826</v>
+        <v>-1.13312693498452</v>
       </c>
       <c r="H272" t="n">
-        <v>133.2666825150341</v>
+        <v>133.0627423522591</v>
       </c>
       <c r="I272" t="b">
         <v>1</v>
@@ -9991,10 +9991,10 @@
         <v>500</v>
       </c>
       <c r="G273" t="n">
-        <v>2.559652928416486</v>
+        <v>2.908296943231441</v>
       </c>
       <c r="H273" t="n">
-        <v>124.5985345152885</v>
+        <v>124.9294255778494</v>
       </c>
       <c r="I273" t="b">
         <v>1</v>
@@ -10026,10 +10026,10 @@
         <v>918</v>
       </c>
       <c r="G274" t="n">
-        <v>2.559652928416486</v>
+        <v>2.908296943231441</v>
       </c>
       <c r="H274" t="n">
-        <v>124.5985345152885</v>
+        <v>124.9294255778494</v>
       </c>
       <c r="I274" t="b">
         <v>1</v>
@@ -10061,10 +10061,10 @@
         <v>918</v>
       </c>
       <c r="G275" t="n">
-        <v>2.559652928416486</v>
+        <v>2.908296943231441</v>
       </c>
       <c r="H275" t="n">
-        <v>124.5985345152885</v>
+        <v>124.9294255778494</v>
       </c>
       <c r="I275" t="b">
         <v>1</v>
@@ -10096,10 +10096,10 @@
         <v>279</v>
       </c>
       <c r="G276" t="n">
-        <v>2.559652928416486</v>
+        <v>2.908296943231441</v>
       </c>
       <c r="H276" t="n">
-        <v>124.5985345152885</v>
+        <v>124.9294255778494</v>
       </c>
       <c r="I276" t="b">
         <v>1</v>
@@ -10131,10 +10131,10 @@
         <v>467</v>
       </c>
       <c r="G277" t="n">
-        <v>2.559652928416486</v>
+        <v>2.908296943231441</v>
       </c>
       <c r="H277" t="n">
-        <v>124.5985345152885</v>
+        <v>124.9294255778494</v>
       </c>
       <c r="I277" t="b">
         <v>1</v>
@@ -10166,10 +10166,10 @@
         <v>1522</v>
       </c>
       <c r="G278" t="n">
-        <v>15.23</v>
+        <v>15.42713567839196</v>
       </c>
       <c r="H278" t="n">
-        <v>168.3046325765683</v>
+        <v>168.7044018973186</v>
       </c>
       <c r="I278" t="b">
         <v>1</v>
@@ -10201,10 +10201,10 @@
         <v>442</v>
       </c>
       <c r="G279" t="n">
-        <v>15.23</v>
+        <v>15.42713567839196</v>
       </c>
       <c r="H279" t="n">
-        <v>168.3046325765683</v>
+        <v>168.7044018973186</v>
       </c>
       <c r="I279" t="b">
         <v>1</v>
@@ -10236,10 +10236,10 @@
         <v>1522</v>
       </c>
       <c r="G280" t="n">
-        <v>15.23</v>
+        <v>15.42713567839196</v>
       </c>
       <c r="H280" t="n">
-        <v>168.3046325765683</v>
+        <v>168.7044018973186</v>
       </c>
       <c r="I280" t="b">
         <v>1</v>
@@ -10271,10 +10271,10 @@
         <v>235</v>
       </c>
       <c r="G281" t="n">
-        <v>4.731034482758621</v>
+        <v>5.186206896551724</v>
       </c>
       <c r="H281" t="n">
-        <v>96.81958129345057</v>
+        <v>96.85290867878072</v>
       </c>
       <c r="I281" t="b">
         <v>1</v>
@@ -10306,10 +10306,10 @@
         <v>235</v>
       </c>
       <c r="G282" t="n">
-        <v>4.731034482758621</v>
+        <v>5.186206896551724</v>
       </c>
       <c r="H282" t="n">
-        <v>96.81958129345057</v>
+        <v>96.85290867878072</v>
       </c>
       <c r="I282" t="b">
         <v>1</v>
@@ -10341,10 +10341,10 @@
         <v>1458</v>
       </c>
       <c r="G283" t="n">
-        <v>4.731034482758621</v>
+        <v>5.186206896551724</v>
       </c>
       <c r="H283" t="n">
-        <v>96.81958129345057</v>
+        <v>96.85290867878072</v>
       </c>
       <c r="I283" t="b">
         <v>1</v>
@@ -10376,10 +10376,10 @@
         <v>511</v>
       </c>
       <c r="G284" t="n">
-        <v>2.308823529411764</v>
+        <v>2.132352941176471</v>
       </c>
       <c r="H284" t="n">
-        <v>69.53175101056537</v>
+        <v>69.52201507044846</v>
       </c>
       <c r="I284" t="b">
         <v>1</v>
@@ -10411,10 +10411,10 @@
         <v>751</v>
       </c>
       <c r="G285" t="n">
-        <v>1.495238095238095</v>
+        <v>1.519047619047619</v>
       </c>
       <c r="H285" t="n">
-        <v>37.46912574259414</v>
+        <v>37.46018133553949</v>
       </c>
       <c r="I285" t="b">
         <v>1</v>
@@ -10481,10 +10481,10 @@
         <v>150</v>
       </c>
       <c r="G287" t="n">
-        <v>5.815789473684211</v>
+        <v>6.765217391304348</v>
       </c>
       <c r="H287" t="n">
-        <v>87.23344387783361</v>
+        <v>86.67779926152224</v>
       </c>
       <c r="I287" t="b">
         <v>1</v>
@@ -10516,10 +10516,10 @@
         <v>273</v>
       </c>
       <c r="G288" t="n">
-        <v>-0.3504273504273504</v>
+        <v>-0.188034188034188</v>
       </c>
       <c r="H288" t="n">
-        <v>96.33421673772497</v>
+        <v>96.35082552694067</v>
       </c>
       <c r="I288" t="b">
         <v>1</v>
@@ -10551,10 +10551,10 @@
         <v>260</v>
       </c>
       <c r="G289" t="n">
-        <v>-2</v>
+        <v>-1.395161290322581</v>
       </c>
       <c r="H289" t="n">
-        <v>61.15234873737524</v>
+        <v>61.13463996817855</v>
       </c>
       <c r="I289" t="b">
         <v>1</v>
@@ -10586,10 +10586,10 @@
         <v>2706</v>
       </c>
       <c r="G290" t="n">
-        <v>-0.3371069182389937</v>
+        <v>-0.6352201257861635</v>
       </c>
       <c r="H290" t="n">
-        <v>708.4724740011513</v>
+        <v>708.4652019223008</v>
       </c>
       <c r="I290" t="b">
         <v>1</v>
@@ -10621,10 +10621,10 @@
         <v>5244</v>
       </c>
       <c r="G291" t="n">
-        <v>-0.3371069182389937</v>
+        <v>-0.6352201257861635</v>
       </c>
       <c r="H291" t="n">
-        <v>708.4724740011513</v>
+        <v>708.4652019223008</v>
       </c>
       <c r="I291" t="b">
         <v>1</v>
@@ -10656,10 +10656,10 @@
         <v>4841</v>
       </c>
       <c r="G292" t="n">
-        <v>-0.3371069182389937</v>
+        <v>-0.6352201257861635</v>
       </c>
       <c r="H292" t="n">
-        <v>708.4724740011513</v>
+        <v>708.4652019223008</v>
       </c>
       <c r="I292" t="b">
         <v>1</v>
@@ -10691,10 +10691,10 @@
         <v>5244</v>
       </c>
       <c r="G293" t="n">
-        <v>-0.3371069182389937</v>
+        <v>-0.6352201257861635</v>
       </c>
       <c r="H293" t="n">
-        <v>708.4724740011513</v>
+        <v>708.4652019223008</v>
       </c>
       <c r="I293" t="b">
         <v>1</v>
@@ -10796,10 +10796,10 @@
         <v>299</v>
       </c>
       <c r="G296" t="n">
-        <v>-4.014492753623188</v>
+        <v>-4.782608695652174</v>
       </c>
       <c r="H296" t="n">
-        <v>85.21607359316656</v>
+        <v>84.94026786430177</v>
       </c>
       <c r="I296" t="b">
         <v>1</v>
@@ -10831,10 +10831,10 @@
         <v>979</v>
       </c>
       <c r="G297" t="n">
-        <v>-1.585585585585586</v>
+        <v>-1.887133182844244</v>
       </c>
       <c r="H297" t="n">
-        <v>149.0697092357136</v>
+        <v>149.2446013535012</v>
       </c>
       <c r="I297" t="b">
         <v>1</v>
@@ -10866,10 +10866,10 @@
         <v>435</v>
       </c>
       <c r="G298" t="n">
-        <v>-1.585585585585586</v>
+        <v>-1.887133182844244</v>
       </c>
       <c r="H298" t="n">
-        <v>149.0697092357136</v>
+        <v>149.2446013535012</v>
       </c>
       <c r="I298" t="b">
         <v>1</v>
@@ -10901,10 +10901,10 @@
         <v>435</v>
       </c>
       <c r="G299" t="n">
-        <v>-1.585585585585586</v>
+        <v>-1.887133182844244</v>
       </c>
       <c r="H299" t="n">
-        <v>149.0697092357136</v>
+        <v>149.2446013535012</v>
       </c>
       <c r="I299" t="b">
         <v>1</v>
@@ -10936,10 +10936,10 @@
         <v>908</v>
       </c>
       <c r="G300" t="n">
-        <v>-1.664948453608248</v>
+        <v>-1.778350515463917</v>
       </c>
       <c r="H300" t="n">
-        <v>42.78208559578169</v>
+        <v>42.74878230985004</v>
       </c>
       <c r="I300" t="b">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>5.657894736842105</v>
       </c>
       <c r="H303" t="n">
-        <v>130.3663035004879</v>
+        <v>130.3711663402212</v>
       </c>
       <c r="I303" t="b">
         <v>1</v>
@@ -11079,7 +11079,7 @@
         <v>5.657894736842105</v>
       </c>
       <c r="H304" t="n">
-        <v>130.3663035004879</v>
+        <v>130.3711663402212</v>
       </c>
       <c r="I304" t="b">
         <v>1</v>
@@ -11146,10 +11146,10 @@
         <v>766</v>
       </c>
       <c r="G306" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H306" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I306" t="b">
         <v>1</v>
@@ -11181,10 +11181,10 @@
         <v>470</v>
       </c>
       <c r="G307" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H307" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I307" t="b">
         <v>1</v>
@@ -11216,10 +11216,10 @@
         <v>766</v>
       </c>
       <c r="G308" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H308" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I308" t="b">
         <v>1</v>
@@ -11251,10 +11251,10 @@
         <v>1154</v>
       </c>
       <c r="G309" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H309" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I309" t="b">
         <v>1</v>
@@ -11286,10 +11286,10 @@
         <v>1154</v>
       </c>
       <c r="G310" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H310" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I310" t="b">
         <v>1</v>
@@ -11321,10 +11321,10 @@
         <v>413</v>
       </c>
       <c r="G311" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H311" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I311" t="b">
         <v>1</v>
@@ -11356,10 +11356,10 @@
         <v>847</v>
       </c>
       <c r="G312" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H312" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I312" t="b">
         <v>1</v>
@@ -11391,10 +11391,10 @@
         <v>406</v>
       </c>
       <c r="G313" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H313" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I313" t="b">
         <v>1</v>
@@ -11426,10 +11426,10 @@
         <v>999</v>
       </c>
       <c r="G314" t="n">
-        <v>6.358520900321543</v>
+        <v>6.392568659127625</v>
       </c>
       <c r="H314" t="n">
-        <v>177.9579056499485</v>
+        <v>178.3839156668392</v>
       </c>
       <c r="I314" t="b">
         <v>1</v>
@@ -11496,10 +11496,10 @@
         <v>405</v>
       </c>
       <c r="G316" t="n">
-        <v>4.702479338842975</v>
+        <v>5.045833333333333</v>
       </c>
       <c r="H316" t="n">
-        <v>89.49606677911108</v>
+        <v>89.80044114272587</v>
       </c>
       <c r="I316" t="b">
         <v>1</v>
@@ -11531,10 +11531,10 @@
         <v>492</v>
       </c>
       <c r="G317" t="n">
-        <v>4.702479338842975</v>
+        <v>5.045833333333333</v>
       </c>
       <c r="H317" t="n">
-        <v>89.49606677911108</v>
+        <v>89.80044114272587</v>
       </c>
       <c r="I317" t="b">
         <v>1</v>
@@ -11566,10 +11566,10 @@
         <v>996</v>
       </c>
       <c r="G318" t="n">
-        <v>4.938461538461539</v>
+        <v>5.316770186335404</v>
       </c>
       <c r="H318" t="n">
-        <v>146.4803611455459</v>
+        <v>147.1074976163906</v>
       </c>
       <c r="I318" t="b">
         <v>1</v>
@@ -11601,10 +11601,10 @@
         <v>376</v>
       </c>
       <c r="G319" t="n">
-        <v>4.938461538461539</v>
+        <v>5.316770186335404</v>
       </c>
       <c r="H319" t="n">
-        <v>146.4803611455459</v>
+        <v>147.1074976163906</v>
       </c>
       <c r="I319" t="b">
         <v>1</v>
@@ -11636,10 +11636,10 @@
         <v>1170</v>
       </c>
       <c r="G320" t="n">
-        <v>-2.274268104776579</v>
+        <v>-1.027692307692308</v>
       </c>
       <c r="H320" t="n">
-        <v>251.8770741123355</v>
+        <v>251.6120766903347</v>
       </c>
       <c r="I320" t="b">
         <v>1</v>
@@ -11671,10 +11671,10 @@
         <v>567</v>
       </c>
       <c r="G321" t="n">
-        <v>-2.274268104776579</v>
+        <v>-1.027692307692308</v>
       </c>
       <c r="H321" t="n">
-        <v>251.8770741123355</v>
+        <v>251.6120766903347</v>
       </c>
       <c r="I321" t="b">
         <v>1</v>
@@ -11706,10 +11706,10 @@
         <v>4352</v>
       </c>
       <c r="G322" t="n">
-        <v>-2.274268104776579</v>
+        <v>-1.027692307692308</v>
       </c>
       <c r="H322" t="n">
-        <v>251.8770741123355</v>
+        <v>251.6120766903347</v>
       </c>
       <c r="I322" t="b">
         <v>1</v>
@@ -11741,10 +11741,10 @@
         <v>1863</v>
       </c>
       <c r="G323" t="n">
-        <v>-2.274268104776579</v>
+        <v>-1.027692307692308</v>
       </c>
       <c r="H323" t="n">
-        <v>251.8770741123355</v>
+        <v>251.6120766903347</v>
       </c>
       <c r="I323" t="b">
         <v>1</v>
@@ -11776,10 +11776,10 @@
         <v>547</v>
       </c>
       <c r="G324" t="n">
-        <v>-2.274268104776579</v>
+        <v>-1.027692307692308</v>
       </c>
       <c r="H324" t="n">
-        <v>251.8770741123355</v>
+        <v>251.6120766903347</v>
       </c>
       <c r="I324" t="b">
         <v>1</v>
@@ -11811,10 +11811,10 @@
         <v>252</v>
       </c>
       <c r="G325" t="n">
-        <v>-2</v>
+        <v>-2.28169014084507</v>
       </c>
       <c r="H325" t="n">
-        <v>112.2963016486189</v>
+        <v>112.1901695836</v>
       </c>
       <c r="I325" t="b">
         <v>1</v>
@@ -11846,10 +11846,10 @@
         <v>399</v>
       </c>
       <c r="G326" t="n">
-        <v>-2</v>
+        <v>-2.28169014084507</v>
       </c>
       <c r="H326" t="n">
-        <v>112.2963016486189</v>
+        <v>112.1901695836</v>
       </c>
       <c r="I326" t="b">
         <v>1</v>
@@ -11916,10 +11916,10 @@
         <v>1163</v>
       </c>
       <c r="G328" t="n">
-        <v>2.814713896457766</v>
+        <v>2.948369565217391</v>
       </c>
       <c r="H328" t="n">
-        <v>166.2157676703807</v>
+        <v>166.0372731456065</v>
       </c>
       <c r="I328" t="b">
         <v>1</v>
@@ -11951,10 +11951,10 @@
         <v>618</v>
       </c>
       <c r="G329" t="n">
-        <v>2.814713896457766</v>
+        <v>2.948369565217391</v>
       </c>
       <c r="H329" t="n">
-        <v>166.2157676703807</v>
+        <v>166.0372731456065</v>
       </c>
       <c r="I329" t="b">
         <v>1</v>
@@ -11986,10 +11986,10 @@
         <v>895</v>
       </c>
       <c r="G330" t="n">
-        <v>2.814713896457766</v>
+        <v>2.948369565217391</v>
       </c>
       <c r="H330" t="n">
-        <v>166.2157676703807</v>
+        <v>166.0372731456065</v>
       </c>
       <c r="I330" t="b">
         <v>1</v>
@@ -12021,10 +12021,10 @@
         <v>408</v>
       </c>
       <c r="G331" t="n">
-        <v>4.736040609137055</v>
+        <v>5.086294416243655</v>
       </c>
       <c r="H331" t="n">
-        <v>55.08936497385709</v>
+        <v>54.84167997261753</v>
       </c>
       <c r="I331" t="b">
         <v>1</v>
@@ -12056,10 +12056,10 @@
         <v>251</v>
       </c>
       <c r="G332" t="n">
-        <v>4.736040609137055</v>
+        <v>5.086294416243655</v>
       </c>
       <c r="H332" t="n">
-        <v>55.08936497385709</v>
+        <v>54.84167997261753</v>
       </c>
       <c r="I332" t="b">
         <v>1</v>
@@ -12091,10 +12091,10 @@
         <v>1348</v>
       </c>
       <c r="G333" t="n">
-        <v>-1.39051094890511</v>
+        <v>-1.467153284671533</v>
       </c>
       <c r="H333" t="n">
-        <v>132.6748651266246</v>
+        <v>132.6865016056647</v>
       </c>
       <c r="I333" t="b">
         <v>1</v>
@@ -12126,10 +12126,10 @@
         <v>213</v>
       </c>
       <c r="G334" t="n">
-        <v>7.511961722488039</v>
+        <v>7.360576923076923</v>
       </c>
       <c r="H334" t="n">
-        <v>98.63394397623071</v>
+        <v>98.87297166197349</v>
       </c>
       <c r="I334" t="b">
         <v>1</v>
@@ -12161,10 +12161,10 @@
         <v>1012</v>
       </c>
       <c r="G335" t="n">
-        <v>7.511961722488039</v>
+        <v>7.360576923076923</v>
       </c>
       <c r="H335" t="n">
-        <v>98.63394397623071</v>
+        <v>98.87297166197349</v>
       </c>
       <c r="I335" t="b">
         <v>1</v>
@@ -12301,10 +12301,10 @@
         <v>405</v>
       </c>
       <c r="G339" t="n">
-        <v>-2.359447004608295</v>
+        <v>-2.212962962962963</v>
       </c>
       <c r="H339" t="n">
-        <v>164.37803599694</v>
+        <v>164.7456701439525</v>
       </c>
       <c r="I339" t="b">
         <v>1</v>
